--- a/Template casos de prueba-1.xlsx
+++ b/Template casos de prueba-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CltControl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CltControl\Desktop\SW2_Examen_Parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Caso de prueba (breve descripción)</t>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t xml:space="preserve">HOMBRE, Soltero , 20, CUENCA, sd, sp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no valido, </t>
+  </si>
+  <si>
+    <t>mujer, 25, divorci, cuenca, sin preext, 1 dep,</t>
+  </si>
+  <si>
+    <t>hombre, 35, no preext, 3 depe, casado , quito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hombre, 40 años. Soltero, sin dep, sin preex, </t>
+  </si>
+  <si>
+    <t>mujer, 40 años. Casada. Guayaquil , 2 dep, con preexistencias</t>
+  </si>
+  <si>
+    <t>mujer, 32, soltera, sin dep, sin preex, AMBATO.</t>
   </si>
 </sst>
 </file>
@@ -802,7 +820,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -837,7 +855,9 @@
       <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="10" t="s">
@@ -849,7 +869,9 @@
       <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
@@ -861,17 +883,23 @@
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="10" t="s">
@@ -880,18 +908,26 @@
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="10" t="s">
@@ -900,8 +936,12 @@
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
@@ -910,8 +950,12 @@
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
